--- a/PsychoPy-online/Language_localiser.xlsx
+++ b/PsychoPy-online/Language_localiser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdabb12e9f34f4c5/10_Paper/105_MIA/10_BAS_Collab/MBRT/OpenSesame-local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdabb12e9f34f4c5/10_Paper/105_MIA/10_BAS_Collab/FPJT/PsychoPy-online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{439F560A-EC9A-4A85-BCCA-B610A865D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB2DAFC-6248-4BD5-A876-C8706B198FD8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{439F560A-EC9A-4A85-BCCA-B610A865D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268E700C-C7ED-4B21-A1A9-A953BB85579F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46470" yWindow="14865" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>language</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>FR</t>
   </si>
 </sst>
 </file>
@@ -208,10 +220,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,19 +519,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.73046875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1"/>
+    <col min="1" max="1" width="20.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,12 +547,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -674,18 +698,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,14 +729,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -725,4 +741,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>